--- a/data/trans_orig/IPAQ_MET-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_MET-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>102602</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85828</v>
+        <v>85705</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>122829</v>
+        <v>122120</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2446043765263521</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2046144086103004</v>
+        <v>0.2043203610379223</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2928241209753231</v>
+        <v>0.2911350000101999</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -763,19 +763,19 @@
         <v>37198</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27074</v>
+        <v>26542</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>50254</v>
+        <v>50998</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09399174731895271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06841147152329222</v>
+        <v>0.06706682355639038</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1269833453171299</v>
+        <v>0.1288626862490965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -784,19 +784,19 @@
         <v>139800</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>118942</v>
+        <v>118038</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>163437</v>
+        <v>160527</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1714881040563909</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1459021058422336</v>
+        <v>0.1447933501099165</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2004821662223294</v>
+        <v>0.1969133324090712</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>218005</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>194566</v>
+        <v>197791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>238406</v>
+        <v>241211</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5197244213671086</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4638459781065535</v>
+        <v>0.4715340240292511</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5683597490511695</v>
+        <v>0.5750472835446268</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>207</v>
@@ -834,19 +834,19 @@
         <v>200668</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>180420</v>
+        <v>181016</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>220271</v>
+        <v>219137</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5070516429492999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4558879355503742</v>
+        <v>0.4573941333882164</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5565849468545926</v>
+        <v>0.5537178881978773</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>412</v>
@@ -855,19 +855,19 @@
         <v>418673</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>390898</v>
+        <v>391092</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>443923</v>
+        <v>447975</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5135723056738623</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4795008986762108</v>
+        <v>0.4797388130599896</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5445451470300295</v>
+        <v>0.5495154755635615</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>98855</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>82734</v>
+        <v>80443</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>117220</v>
+        <v>117406</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2356712021065393</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1972373845095579</v>
+        <v>0.1917754349192383</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2794523968911242</v>
+        <v>0.2798968699030212</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>160</v>
@@ -905,19 +905,19 @@
         <v>157889</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>139083</v>
+        <v>139423</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>177751</v>
+        <v>177185</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3989566097317473</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3514373045290351</v>
+        <v>0.3522962313166321</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4491437063763843</v>
+        <v>0.4477133884740648</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>252</v>
@@ -926,19 +926,19 @@
         <v>256744</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>232445</v>
+        <v>229003</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>282844</v>
+        <v>281892</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3149395902697469</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.285131868417049</v>
+        <v>0.2809097732781144</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3469552566290076</v>
+        <v>0.3457877456306506</v>
       </c>
     </row>
     <row r="7">
@@ -1030,19 +1030,19 @@
         <v>122712</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>103314</v>
+        <v>104766</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>144127</v>
+        <v>144257</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2078115254264455</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1749622105246901</v>
+        <v>0.1774209863181235</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2440773632379459</v>
+        <v>0.2442976272535923</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -1051,19 +1051,19 @@
         <v>40717</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>29183</v>
+        <v>29137</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>53964</v>
+        <v>55031</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07225159005577392</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05178391309845873</v>
+        <v>0.0517036922031919</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09575883326196828</v>
+        <v>0.09765133670248249</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>158</v>
@@ -1072,19 +1072,19 @@
         <v>163429</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>139499</v>
+        <v>138815</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>188864</v>
+        <v>187706</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1416145574403638</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1208784042591796</v>
+        <v>0.1202857313379011</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.163654421527129</v>
+        <v>0.1626511642889227</v>
       </c>
     </row>
     <row r="9">
@@ -1101,19 +1101,19 @@
         <v>309240</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>284949</v>
+        <v>283850</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>334462</v>
+        <v>332674</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5236952194424224</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4825585775812464</v>
+        <v>0.4806973808466569</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5664083506588456</v>
+        <v>0.5633801235918118</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>301</v>
@@ -1122,19 +1122,19 @@
         <v>294027</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>272668</v>
+        <v>271642</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>318965</v>
+        <v>318328</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5217461594164828</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4838456502547726</v>
+        <v>0.4820245089770105</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5659980337777417</v>
+        <v>0.5648673009103065</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>598</v>
@@ -1143,19 +1143,19 @@
         <v>603267</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>567104</v>
+        <v>571147</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>634550</v>
+        <v>638423</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5227434495571146</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4914076239903011</v>
+        <v>0.4949108718716214</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5498510896686004</v>
+        <v>0.5532067739251407</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>158544</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>138195</v>
+        <v>137759</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>182723</v>
+        <v>181079</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2684932551311321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2340319199689054</v>
+        <v>0.2332936651021832</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3094404638515737</v>
+        <v>0.3066555568437431</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>236</v>
@@ -1193,19 +1193,19 @@
         <v>228800</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>207507</v>
+        <v>208209</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>251209</v>
+        <v>251811</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4060022505277432</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3682187543102033</v>
+        <v>0.3694634057089402</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4457658077438177</v>
+        <v>0.4468342748295251</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>390</v>
@@ -1214,19 +1214,19 @@
         <v>387344</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>356528</v>
+        <v>355182</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>424075</v>
+        <v>418345</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3356419930025216</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3089388639931432</v>
+        <v>0.3077730729993955</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3674695136849997</v>
+        <v>0.3625048506326231</v>
       </c>
     </row>
     <row r="11">
@@ -1318,19 +1318,19 @@
         <v>109720</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>91220</v>
+        <v>91236</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>130451</v>
+        <v>131391</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.163982842278433</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1363333082797928</v>
+        <v>0.1363575199943433</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1949656155282407</v>
+        <v>0.1963710880103198</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>50</v>
@@ -1339,19 +1339,19 @@
         <v>50368</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36717</v>
+        <v>38045</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>64976</v>
+        <v>66173</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07615592928573875</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05551563315977607</v>
+        <v>0.05752283931394574</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09824241347363252</v>
+        <v>0.1000523173330616</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>155</v>
@@ -1360,19 +1360,19 @@
         <v>160089</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>139141</v>
+        <v>137657</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>184012</v>
+        <v>184133</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1203238729182551</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1045796087841602</v>
+        <v>0.1034640117940036</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1383043574619599</v>
+        <v>0.1383959055994179</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>297774</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>270877</v>
+        <v>272270</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>322212</v>
+        <v>323542</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4450380269014981</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4048389884869972</v>
+        <v>0.4069216680190482</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.481563153803259</v>
+        <v>0.4835503388544599</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>336</v>
@@ -1410,19 +1410,19 @@
         <v>336851</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>311024</v>
+        <v>313611</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>363477</v>
+        <v>366469</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5093113909604343</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4702612786516286</v>
+        <v>0.4741721398354202</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5495689441074662</v>
+        <v>0.5540927965222872</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>618</v>
@@ -1431,19 +1431,19 @@
         <v>634625</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>596442</v>
+        <v>596563</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>669790</v>
+        <v>672289</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4769884705241503</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4482895067788267</v>
+        <v>0.4483810658600871</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.503418351302391</v>
+        <v>0.505296819307347</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>261603</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>237218</v>
+        <v>236587</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>285975</v>
+        <v>286952</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3909791308200689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3545339114078552</v>
+        <v>0.353591443670421</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4274051267234137</v>
+        <v>0.4288641407036335</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>279</v>
@@ -1481,19 +1481,19 @@
         <v>274166</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>249030</v>
+        <v>247149</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>300084</v>
+        <v>297546</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4145326797538269</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3765277889384629</v>
+        <v>0.3736828939704938</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4537192505594061</v>
+        <v>0.4498824499752588</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>530</v>
@@ -1502,19 +1502,19 @@
         <v>535769</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>497329</v>
+        <v>494095</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>572105</v>
+        <v>569942</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4026876565575946</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3737955076050004</v>
+        <v>0.3713647942791148</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4299983033406204</v>
+        <v>0.4283723873838812</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>70163</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55106</v>
+        <v>55086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>88137</v>
+        <v>89382</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1086039988871384</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08529672897939761</v>
+        <v>0.08526653976536151</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1364246143298894</v>
+        <v>0.1383519986766646</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -1627,19 +1627,19 @@
         <v>43078</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31207</v>
+        <v>30788</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57481</v>
+        <v>56584</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06636812552775577</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04807854169561271</v>
+        <v>0.04743281092845498</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08855833088419915</v>
+        <v>0.08717650566812093</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>103</v>
@@ -1648,19 +1648,19 @@
         <v>113241</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>94163</v>
+        <v>92471</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>135004</v>
+        <v>134896</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08743667806786889</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07270604795292529</v>
+        <v>0.07139910100696768</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1042402330422569</v>
+        <v>0.1041567877399731</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>324834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>298801</v>
+        <v>295884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>349944</v>
+        <v>351847</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5028010664632911</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4625056746865818</v>
+        <v>0.4579903826204724</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5416679907975632</v>
+        <v>0.5446139616416199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>329</v>
@@ -1698,19 +1698,19 @@
         <v>354537</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>328875</v>
+        <v>330316</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>381480</v>
+        <v>382626</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5462169396647284</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5066812920538152</v>
+        <v>0.508901006395767</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5877270452207957</v>
+        <v>0.5894923091483152</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>622</v>
@@ -1719,19 +1719,19 @@
         <v>679370</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>642843</v>
+        <v>641163</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>714972</v>
+        <v>714351</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5245597669140631</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4963562684324507</v>
+        <v>0.4950588777426</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5520482823491227</v>
+        <v>0.5515689419806415</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>251051</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>228930</v>
+        <v>224035</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>279942</v>
+        <v>278005</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3885949346495705</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3543545743499262</v>
+        <v>0.3467776031780622</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4333137862758216</v>
+        <v>0.4303167576893607</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>233</v>
@@ -1769,19 +1769,19 @@
         <v>251462</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>224670</v>
+        <v>225033</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>276912</v>
+        <v>275825</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3874149348075159</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3461375749719668</v>
+        <v>0.346696789078362</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4266235791114467</v>
+        <v>0.4249499702116802</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>459</v>
@@ -1790,19 +1790,19 @@
         <v>502513</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>468881</v>
+        <v>466755</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>537906</v>
+        <v>539675</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.388003555018068</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3620350287572196</v>
+        <v>0.3603935152336162</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4153316812178026</v>
+        <v>0.4166973287581789</v>
       </c>
     </row>
     <row r="19">
@@ -1894,19 +1894,19 @@
         <v>41814</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30554</v>
+        <v>30330</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55126</v>
+        <v>55571</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08749107110141927</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0639311977109705</v>
+        <v>0.06346208044262873</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1153464320225669</v>
+        <v>0.1162783034999036</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1915,19 +1915,19 @@
         <v>9245</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4481</v>
+        <v>4514</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17435</v>
+        <v>16527</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01860760269278265</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009017905371308343</v>
+        <v>0.009084471285599182</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03509168104832074</v>
+        <v>0.03326444195292162</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -1936,19 +1936,19 @@
         <v>51059</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>37817</v>
+        <v>38342</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>66543</v>
+        <v>66327</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05238044210407123</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03879555891854811</v>
+        <v>0.03933418089888831</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06826572297767743</v>
+        <v>0.06804354184287412</v>
       </c>
     </row>
     <row r="21">
@@ -1965,19 +1965,19 @@
         <v>274995</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>253083</v>
+        <v>252959</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>299064</v>
+        <v>297212</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5754018734019424</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5295529612199448</v>
+        <v>0.5292932996623408</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6257651404271783</v>
+        <v>0.6218892960711615</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>208</v>
@@ -1986,19 +1986,19 @@
         <v>237758</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>215404</v>
+        <v>213081</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>261158</v>
+        <v>263127</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4785325188334144</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4335392044111018</v>
+        <v>0.4288652136334861</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.525628374830161</v>
+        <v>0.5295912637637388</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>451</v>
@@ -2007,19 +2007,19 @@
         <v>512753</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>481064</v>
+        <v>482046</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>543309</v>
+        <v>543359</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5260265436161137</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4935169112966817</v>
+        <v>0.4945241580922695</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5573737043033972</v>
+        <v>0.5574248271975146</v>
       </c>
     </row>
     <row r="22">
@@ -2036,19 +2036,19 @@
         <v>161110</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>139175</v>
+        <v>139796</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>183097</v>
+        <v>182554</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3371070554966383</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2912107236430427</v>
+        <v>0.2925110683789381</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3831131047270382</v>
+        <v>0.3819767670597411</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>217</v>
@@ -2057,19 +2057,19 @@
         <v>249845</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>227775</v>
+        <v>223794</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>273675</v>
+        <v>275138</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.502859878473803</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.458438163242975</v>
+        <v>0.4504264537200791</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.550820565565629</v>
+        <v>0.5537658773299585</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>360</v>
@@ -2078,19 +2078,19 @@
         <v>410955</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>379345</v>
+        <v>379569</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>441416</v>
+        <v>443373</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4215930142798151</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3891642863241783</v>
+        <v>0.3893940913287241</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4528428244745581</v>
+        <v>0.4548506153673468</v>
       </c>
     </row>
     <row r="23">
@@ -2182,19 +2182,19 @@
         <v>17748</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10880</v>
+        <v>11024</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>27447</v>
+        <v>26865</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05308606396467956</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03254234254301126</v>
+        <v>0.032974463167707</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08209658739897692</v>
+        <v>0.08035581512665277</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>13</v>
@@ -2203,19 +2203,19 @@
         <v>14097</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7463</v>
+        <v>7708</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>23906</v>
+        <v>24655</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03731683739534888</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0197566175848171</v>
+        <v>0.02040456446152878</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06328383925770981</v>
+        <v>0.06526529575649261</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>31</v>
@@ -2224,19 +2224,19 @@
         <v>31845</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>21931</v>
+        <v>22536</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>44858</v>
+        <v>44995</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04472055137005435</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0307974120548575</v>
+        <v>0.03164718637725183</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06299448929520893</v>
+        <v>0.06318758671369237</v>
       </c>
     </row>
     <row r="25">
@@ -2253,19 +2253,19 @@
         <v>180832</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>163055</v>
+        <v>162394</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>200684</v>
+        <v>199178</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5408780645787516</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.48770797239348</v>
+        <v>0.485731136531834</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6002566619433181</v>
+        <v>0.5957534887190702</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>172</v>
@@ -2274,19 +2274,19 @@
         <v>182155</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>162892</v>
+        <v>163346</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>201066</v>
+        <v>202763</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4821947474748243</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4312026708406815</v>
+        <v>0.4324037742934319</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5322552917996269</v>
+        <v>0.5367481419329124</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>348</v>
@@ -2295,19 +2295,19 @@
         <v>362987</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>336647</v>
+        <v>336495</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>392355</v>
+        <v>390865</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5097467959544512</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4727578760070184</v>
+        <v>0.4725435877184059</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.550989021900944</v>
+        <v>0.5488966688632274</v>
       </c>
     </row>
     <row r="26">
@@ -2324,19 +2324,19 @@
         <v>135750</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>116864</v>
+        <v>118305</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>153878</v>
+        <v>154580</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4060358714565687</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3495480933555141</v>
+        <v>0.35385566754231</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4602568555532889</v>
+        <v>0.462357489651497</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>169</v>
@@ -2345,19 +2345,19 @@
         <v>181510</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>161211</v>
+        <v>162599</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>199581</v>
+        <v>201383</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4804884151298269</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4267518945537665</v>
+        <v>0.4304261439387141</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5283259589381356</v>
+        <v>0.5330945959787252</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>300</v>
@@ -2366,19 +2366,19 @@
         <v>317260</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>289531</v>
+        <v>290273</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>345530</v>
+        <v>345343</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4455326526754945</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4065924146204465</v>
+        <v>0.407634541784677</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4852327692476946</v>
+        <v>0.4849700831543243</v>
       </c>
     </row>
     <row r="27">
@@ -2470,19 +2470,19 @@
         <v>11775</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6428</v>
+        <v>6833</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18983</v>
+        <v>19227</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04581555191941578</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02501233429297801</v>
+        <v>0.02658805005563422</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07386324739752799</v>
+        <v>0.07481513440729104</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8308</v>
+        <v>8404</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.006722827311605425</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02076029064740973</v>
+        <v>0.02100072487906387</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>16</v>
@@ -2512,19 +2512,19 @@
         <v>14465</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>8387</v>
+        <v>8816</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>22430</v>
+        <v>23946</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02201080140770978</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01276250649735304</v>
+        <v>0.01341590527465042</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03413108693288311</v>
+        <v>0.03643808309891305</v>
       </c>
     </row>
     <row r="29">
@@ -2541,19 +2541,19 @@
         <v>100736</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>86253</v>
+        <v>87117</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>116307</v>
+        <v>114019</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3919712819843154</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.335616962781552</v>
+        <v>0.3389775746372695</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4525585622798911</v>
+        <v>0.4436560483960255</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>77</v>
@@ -2562,19 +2562,19 @@
         <v>102797</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>84138</v>
+        <v>82500</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>122670</v>
+        <v>122686</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2568840905830699</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.210256379032967</v>
+        <v>0.2061639956920012</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3065455266864982</v>
+        <v>0.30658433202646</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>197</v>
@@ -2583,19 +2583,19 @@
         <v>203533</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>180842</v>
+        <v>179746</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>228195</v>
+        <v>228899</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3097125773047431</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2751849725264185</v>
+        <v>0.273516621301664</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3472404129816765</v>
+        <v>0.348311156658118</v>
       </c>
     </row>
     <row r="30">
@@ -2612,19 +2612,19 @@
         <v>144488</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>128775</v>
+        <v>129239</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>158122</v>
+        <v>157662</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5622131660962688</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.501073151720462</v>
+        <v>0.502881271053682</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6152636254360297</v>
+        <v>0.6134742601427227</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>222</v>
@@ -2633,19 +2633,19 @@
         <v>294682</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>273631</v>
+        <v>274040</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>313060</v>
+        <v>314612</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.7363930821053246</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6837896565096314</v>
+        <v>0.68481160252268</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7823198791134535</v>
+        <v>0.7861978991771739</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>390</v>
@@ -2654,19 +2654,19 @@
         <v>439169</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>415496</v>
+        <v>413789</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>462882</v>
+        <v>463843</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6682766212875472</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6322535290161001</v>
+        <v>0.6296560122356666</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7043592828464785</v>
+        <v>0.7058221284037429</v>
       </c>
     </row>
     <row r="31">
@@ -2758,19 +2758,19 @@
         <v>476535</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>436527</v>
+        <v>437981</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>518459</v>
+        <v>516767</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1403905067155106</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1286040901304634</v>
+        <v>0.1290324943362736</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1527417490379025</v>
+        <v>0.1522432629283079</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>192</v>
@@ -2779,19 +2779,19 @@
         <v>197393</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>169849</v>
+        <v>173590</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>224760</v>
+        <v>227121</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05568941290022587</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04791853468411063</v>
+        <v>0.04897385118138771</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06341018957301164</v>
+        <v>0.06407620771999326</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>642</v>
@@ -2800,19 +2800,19 @@
         <v>673928</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>626394</v>
+        <v>621450</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>728650</v>
+        <v>724559</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09712328630252978</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09027292835624214</v>
+        <v>0.08956043061694993</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1050095672939261</v>
+        <v>0.1044199304806835</v>
       </c>
     </row>
     <row r="33">
@@ -2829,19 +2829,19 @@
         <v>1706415</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1652342</v>
+        <v>1651772</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1768155</v>
+        <v>1771942</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.5027221329815735</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4867920150423423</v>
+        <v>0.4866240058952113</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5209113061283316</v>
+        <v>0.5220269654869019</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1630</v>
@@ -2850,19 +2850,19 @@
         <v>1708794</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1653649</v>
+        <v>1643997</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1773493</v>
+        <v>1767301</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.4820915424225908</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.466533810678934</v>
+        <v>0.4638107737053301</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.5003446339408808</v>
+        <v>0.4985977785511068</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3246</v>
@@ -2871,19 +2871,19 @@
         <v>3415209</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3340512</v>
+        <v>3321300</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3503237</v>
+        <v>3494369</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.492183564130124</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4814187122385455</v>
+        <v>0.4786499625110557</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.5048697302331341</v>
+        <v>0.5035917988574045</v>
       </c>
     </row>
     <row r="34">
@@ -2900,19 +2900,19 @@
         <v>1211401</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1159778</v>
+        <v>1153123</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1272429</v>
+        <v>1267476</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3568873603029158</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3416790896614441</v>
+        <v>0.339718245434453</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.374866767686324</v>
+        <v>0.373407581322073</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1516</v>
@@ -2921,19 +2921,19 @@
         <v>1638355</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1580435</v>
+        <v>1580230</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1696016</v>
+        <v>1702017</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4622190446771833</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4458785656051979</v>
+        <v>0.4458206462063441</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4784865185513294</v>
+        <v>0.4801795585244058</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2681</v>
@@ -2942,19 +2942,19 @@
         <v>2849755</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2761622</v>
+        <v>2773784</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2926814</v>
+        <v>2941347</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4106931495673462</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3979918145848292</v>
+        <v>0.3997444656883644</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4217984585909653</v>
+        <v>0.4238929555696783</v>
       </c>
     </row>
     <row r="35">
@@ -3289,19 +3289,19 @@
         <v>174874</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>146541</v>
+        <v>142434</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>208696</v>
+        <v>208717</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4288306262815841</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3593523800210248</v>
+        <v>0.3492811967951377</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5117699727778847</v>
+        <v>0.5118208548258947</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -3310,19 +3310,19 @@
         <v>79338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59734</v>
+        <v>61036</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>103473</v>
+        <v>103310</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2188557058747914</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.164778358259778</v>
+        <v>0.1683687454726192</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2854340350720308</v>
+        <v>0.2849831577489965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -3331,19 +3331,19 @@
         <v>254212</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>215211</v>
+        <v>218398</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>293135</v>
+        <v>297253</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3300146775701979</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2793843658506828</v>
+        <v>0.2835211179306644</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3805441000717383</v>
+        <v>0.3858901595581571</v>
       </c>
     </row>
     <row r="5">
@@ -3360,19 +3360,19 @@
         <v>173874</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>142711</v>
+        <v>144234</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>206324</v>
+        <v>205184</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4263780034071915</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3499590583450519</v>
+        <v>0.35369507592237</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5059525697303811</v>
+        <v>0.5031575216221886</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>103</v>
@@ -3381,19 +3381,19 @@
         <v>176479</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147969</v>
+        <v>150277</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>200297</v>
+        <v>201597</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.486822806001713</v>
+        <v>0.4868228060017131</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4081773362254673</v>
+        <v>0.4145441214977148</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5525259463266267</v>
+        <v>0.5561105012092867</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>176</v>
@@ -3402,19 +3402,19 @@
         <v>350353</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>309086</v>
+        <v>307042</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>393916</v>
+        <v>391272</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4548238316112387</v>
+        <v>0.4548238316112386</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.401251182915304</v>
+        <v>0.3985984003133256</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5113764443537434</v>
+        <v>0.507943980360007</v>
       </c>
     </row>
     <row r="6">
@@ -3431,19 +3431,19 @@
         <v>59045</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>39948</v>
+        <v>37926</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>87632</v>
+        <v>86033</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1447913703112246</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09796205435791346</v>
+        <v>0.09300351722550949</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2148934504378645</v>
+        <v>0.2109726713690392</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>59</v>
@@ -3452,19 +3452,19 @@
         <v>106695</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>83870</v>
+        <v>83811</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>132087</v>
+        <v>129888</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2943214881234954</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2313566056853316</v>
+        <v>0.2311940259009008</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3643650703905278</v>
+        <v>0.3583004251358108</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>84</v>
@@ -3473,19 +3473,19 @@
         <v>165740</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>137032</v>
+        <v>135721</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>198488</v>
+        <v>203981</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2151614908185635</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1778932522915485</v>
+        <v>0.1761906178797787</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2576739350251911</v>
+        <v>0.2648053430409573</v>
       </c>
     </row>
     <row r="7">
@@ -3577,19 +3577,19 @@
         <v>147565</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>124274</v>
+        <v>122816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>175265</v>
+        <v>174487</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3094313546330605</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2605918285706576</v>
+        <v>0.257536037584092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3675167593168259</v>
+        <v>0.365884270153938</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>86</v>
@@ -3598,19 +3598,19 @@
         <v>92880</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76222</v>
+        <v>75480</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>112267</v>
+        <v>112568</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1851184829725082</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1519170007931636</v>
+        <v>0.1504382733088142</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2237579218880178</v>
+        <v>0.2243579689666552</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>180</v>
@@ -3619,19 +3619,19 @@
         <v>240445</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>209505</v>
+        <v>209017</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>273221</v>
+        <v>273279</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2456970775924192</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2140811812159782</v>
+        <v>0.2135828092597266</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2791894134741889</v>
+        <v>0.2792479987142807</v>
       </c>
     </row>
     <row r="9">
@@ -3648,19 +3648,19 @@
         <v>214797</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>186857</v>
+        <v>189423</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>243464</v>
+        <v>241393</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4504120719432844</v>
+        <v>0.4504120719432843</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3918246302327574</v>
+        <v>0.3972058053364482</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5105234584445768</v>
+        <v>0.5061811457492418</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>240</v>
@@ -3669,19 +3669,19 @@
         <v>260803</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>239381</v>
+        <v>241457</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>284707</v>
+        <v>285673</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5198038747140787</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.477108735708262</v>
+        <v>0.4812460022584218</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5674477727875007</v>
+        <v>0.5693734748160323</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>376</v>
@@ -3690,19 +3690,19 @@
         <v>475600</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>435830</v>
+        <v>440497</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>511770</v>
+        <v>512304</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4859887288338095</v>
+        <v>0.4859887288338096</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4453501581286812</v>
+        <v>0.4501193879343363</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5229494861168195</v>
+        <v>0.5234951528463632</v>
       </c>
     </row>
     <row r="10">
@@ -3719,19 +3719,19 @@
         <v>114528</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92197</v>
+        <v>90451</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142057</v>
+        <v>139630</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2401565734236551</v>
+        <v>0.240156573423655</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1933298056051754</v>
+        <v>0.1896693679799295</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2978823300941627</v>
+        <v>0.2927933371042801</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -3740,19 +3740,19 @@
         <v>148050</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>128533</v>
+        <v>125167</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>169966</v>
+        <v>168445</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2950776423134129</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2561784348310182</v>
+        <v>0.2494684912744946</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3387582050571999</v>
+        <v>0.3357263997421667</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>207</v>
@@ -3761,19 +3761,19 @@
         <v>262578</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>232921</v>
+        <v>231303</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>299843</v>
+        <v>298324</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2683141935737713</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2380093785995938</v>
+        <v>0.2363554048767595</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3063926152670637</v>
+        <v>0.3048405359623931</v>
       </c>
     </row>
     <row r="11">
@@ -3865,19 +3865,19 @@
         <v>153527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>130397</v>
+        <v>131504</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>175933</v>
+        <v>177103</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2472901916071113</v>
+        <v>0.2472901916071114</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2100340899556381</v>
+        <v>0.2118178475890516</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2833797812492676</v>
+        <v>0.2852651484372155</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>171</v>
@@ -3886,19 +3886,19 @@
         <v>116718</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>101409</v>
+        <v>101025</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>131891</v>
+        <v>133046</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1872902557029341</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1627252426067833</v>
+        <v>0.1621085089755677</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2116379157220912</v>
+        <v>0.2134915793870837</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>309</v>
@@ -3907,19 +3907,19 @@
         <v>270245</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>242780</v>
+        <v>246274</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>301170</v>
+        <v>304023</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2172334130302778</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.195156309964853</v>
+        <v>0.1979648917876604</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2420925521113438</v>
+        <v>0.2443857257974771</v>
       </c>
     </row>
     <row r="13">
@@ -3936,19 +3936,19 @@
         <v>296243</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>269755</v>
+        <v>272443</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>324029</v>
+        <v>326821</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4771663263590538</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4345020387825343</v>
+        <v>0.4388324422050235</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5219236222148956</v>
+        <v>0.5264194446061508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>412</v>
@@ -3957,19 +3957,19 @@
         <v>300744</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>281073</v>
+        <v>280103</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>319679</v>
+        <v>324267</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4825864192538956</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4510206462362534</v>
+        <v>0.4494641094941972</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5129688689963771</v>
+        <v>0.5203318661244036</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>674</v>
@@ -3978,19 +3978,19 @@
         <v>596987</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>560469</v>
+        <v>565977</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>629328</v>
+        <v>633226</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4798815047930159</v>
+        <v>0.4798815047930158</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4505273882756206</v>
+        <v>0.4549551879471516</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5058789340271715</v>
+        <v>0.5090123150377386</v>
       </c>
     </row>
     <row r="14">
@@ -4007,19 +4007,19 @@
         <v>171068</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>148939</v>
+        <v>148662</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>197910</v>
+        <v>197147</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2755434820338349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.239899597094536</v>
+        <v>0.2394548520152794</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3187789283056481</v>
+        <v>0.317549609539329</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>265</v>
@@ -4028,19 +4028,19 @@
         <v>205731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>186675</v>
+        <v>186221</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>226030</v>
+        <v>226937</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3301233250431703</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2995464685550645</v>
+        <v>0.2988182320454279</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3626961181196819</v>
+        <v>0.3641514293316619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>411</v>
@@ -4049,19 +4049,19 @@
         <v>376798</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>345378</v>
+        <v>343406</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>406774</v>
+        <v>408629</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3028850821767063</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2776288301896216</v>
+        <v>0.276043470814172</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3269808711978934</v>
+        <v>0.3284725990896499</v>
       </c>
     </row>
     <row r="15">
@@ -4153,19 +4153,19 @@
         <v>196296</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>174011</v>
+        <v>173082</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>221266</v>
+        <v>219130</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2801757511574632</v>
+        <v>0.2801757511574631</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2483683554273548</v>
+        <v>0.247042424089815</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3158160154821172</v>
+        <v>0.3127666851389348</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>251</v>
@@ -4174,19 +4174,19 @@
         <v>152362</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>137306</v>
+        <v>135582</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>170969</v>
+        <v>169618</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2067645678029172</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1863323684475016</v>
+        <v>0.1839926783799094</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2320152820468757</v>
+        <v>0.2301822994146258</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>439</v>
@@ -4195,19 +4195,19 @@
         <v>348658</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>318754</v>
+        <v>320231</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>378319</v>
+        <v>378763</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2425440518281751</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2217410196999492</v>
+        <v>0.2227685483613606</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2631779708258136</v>
+        <v>0.2634865314474337</v>
       </c>
     </row>
     <row r="17">
@@ -4224,19 +4224,19 @@
         <v>309782</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>280921</v>
+        <v>282900</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>338542</v>
+        <v>335035</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.442155643054245</v>
+        <v>0.4421556430542449</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4009625830471223</v>
+        <v>0.4037870838513488</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4832050553548458</v>
+        <v>0.4781998348198972</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>564</v>
@@ -4245,19 +4245,19 @@
         <v>365358</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>344221</v>
+        <v>343861</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>386687</v>
+        <v>387608</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4958137136170345</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4671290085417422</v>
+        <v>0.4666410250697577</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5247578161233426</v>
+        <v>0.5260085480957052</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>865</v>
@@ -4266,19 +4266,19 @@
         <v>675140</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>641219</v>
+        <v>638643</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>714349</v>
+        <v>709620</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4696615935884638</v>
+        <v>0.4696615935884639</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4460644830010876</v>
+        <v>0.4442723396483502</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4969371353038621</v>
+        <v>0.4936471581989337</v>
       </c>
     </row>
     <row r="18">
@@ -4295,19 +4295,19 @@
         <v>194539</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>170655</v>
+        <v>172735</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>220156</v>
+        <v>219914</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2776686057882919</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2435775982576045</v>
+        <v>0.2465466416206828</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3142322225662457</v>
+        <v>0.3138860945610137</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>326</v>
@@ -4316,19 +4316,19 @@
         <v>219166</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>199690</v>
+        <v>201383</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>241079</v>
+        <v>240797</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2974217185800483</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2709923902132663</v>
+        <v>0.2732892982632588</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3271597367761288</v>
+        <v>0.3267761340252939</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>502</v>
@@ -4337,19 +4337,19 @@
         <v>413706</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>383527</v>
+        <v>380386</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>448978</v>
+        <v>447065</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.287794354583361</v>
+        <v>0.2877943545833611</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.266800471527021</v>
+        <v>0.2646153231703841</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3123314728050169</v>
+        <v>0.3110012089224884</v>
       </c>
     </row>
     <row r="19">
@@ -4441,19 +4441,19 @@
         <v>142715</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>124396</v>
+        <v>121459</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>163617</v>
+        <v>162698</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2342108640980831</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2041459274010459</v>
+        <v>0.1993261671039608</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2685128642232014</v>
+        <v>0.2670037936218183</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>182</v>
@@ -4462,19 +4462,19 @@
         <v>100911</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>87908</v>
+        <v>87657</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>115866</v>
+        <v>116257</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1657394122804773</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1443829111355435</v>
+        <v>0.1439700873856868</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1903018788568952</v>
+        <v>0.1909442369138371</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>346</v>
@@ -4483,19 +4483,19 @@
         <v>243627</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>218468</v>
+        <v>220418</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>265819</v>
+        <v>270112</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1999889382256784</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1793367563180552</v>
+        <v>0.1809373881644118</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2182057923969259</v>
+        <v>0.2217304352449301</v>
       </c>
     </row>
     <row r="21">
@@ -4512,19 +4512,19 @@
         <v>261036</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>237676</v>
+        <v>237859</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>284060</v>
+        <v>287122</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4283877067392464</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3900515169743025</v>
+        <v>0.3903519542758993</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4661725654238535</v>
+        <v>0.4711964066703052</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>485</v>
@@ -4533,19 +4533,19 @@
         <v>294862</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>275767</v>
+        <v>276038</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>312919</v>
+        <v>314091</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4842899207895127</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4529267419367989</v>
+        <v>0.453371963291116</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5139461420170556</v>
+        <v>0.5158723765477347</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>768</v>
@@ -4554,19 +4554,19 @@
         <v>555899</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>525441</v>
+        <v>524923</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>586357</v>
+        <v>588282</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4563275469872315</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4313250159295504</v>
+        <v>0.4309001219739387</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4813301518729899</v>
+        <v>0.482909922296326</v>
       </c>
     </row>
     <row r="22">
@@ -4583,19 +4583,19 @@
         <v>205594</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>183393</v>
+        <v>184090</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>227792</v>
+        <v>231219</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3374014291626704</v>
+        <v>0.3374014291626705</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.30096707084392</v>
+        <v>0.3021110595980835</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3738306977631951</v>
+        <v>0.3794537055991117</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>335</v>
@@ -4604,19 +4604,19 @@
         <v>213081</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>193797</v>
+        <v>194061</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>230741</v>
+        <v>230073</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3499706669300099</v>
+        <v>0.34997066693001</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3182978748385196</v>
+        <v>0.3187306636203383</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3789756266355493</v>
+        <v>0.3778784387838941</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>551</v>
@@ -4625,19 +4625,19 @@
         <v>418676</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>391473</v>
+        <v>388739</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>449383</v>
+        <v>449986</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3436835147870901</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.321353429157576</v>
+        <v>0.319108810201744</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3688900198535376</v>
+        <v>0.3693856796104403</v>
       </c>
     </row>
     <row r="23">
@@ -4729,19 +4729,19 @@
         <v>98193</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>83704</v>
+        <v>83952</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>112937</v>
+        <v>113309</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2412125249162737</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2056195171146013</v>
+        <v>0.2062301576909721</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2774324629554213</v>
+        <v>0.278345974132794</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>150</v>
@@ -4750,19 +4750,19 @@
         <v>76263</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>64517</v>
+        <v>65560</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>87294</v>
+        <v>88960</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1736532550534674</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.14690725174453</v>
+        <v>0.149282685259097</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.198773157973241</v>
+        <v>0.2025656891734539</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>286</v>
@@ -4771,19 +4771,19 @@
         <v>174455</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>157077</v>
+        <v>154116</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>196382</v>
+        <v>191289</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2061520934377548</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.18561596218175</v>
+        <v>0.1821172188036439</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2320625514601156</v>
+        <v>0.2260442388272308</v>
       </c>
     </row>
     <row r="25">
@@ -4800,19 +4800,19 @@
         <v>201409</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>183226</v>
+        <v>183754</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>217207</v>
+        <v>220076</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4947647344275657</v>
+        <v>0.4947647344275656</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4500986537494625</v>
+        <v>0.4513955443999483</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5335737863060198</v>
+        <v>0.5406210871131493</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>384</v>
@@ -4821,19 +4821,19 @@
         <v>202610</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>187952</v>
+        <v>187295</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>218472</v>
+        <v>217467</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4613517296113041</v>
+        <v>0.461351729611304</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4279753310839673</v>
+        <v>0.4264798706115696</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4974691930933969</v>
+        <v>0.4951806473927113</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>669</v>
@@ -4842,19 +4842,19 @@
         <v>404019</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>379863</v>
+        <v>382240</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>426431</v>
+        <v>427161</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.4774247843625206</v>
+        <v>0.4774247843625207</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4488797854495263</v>
+        <v>0.4516890735717336</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5039090432726028</v>
+        <v>0.5047715368349942</v>
       </c>
     </row>
     <row r="26">
@@ -4871,19 +4871,19 @@
         <v>107478</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91970</v>
+        <v>93432</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>122224</v>
+        <v>122709</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2640227406561605</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2259259169037195</v>
+        <v>0.2295184108365106</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3002464271121542</v>
+        <v>0.3014370154379189</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>293</v>
@@ -4892,19 +4892,19 @@
         <v>160293</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>145779</v>
+        <v>146794</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>174748</v>
+        <v>175440</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3649950153352287</v>
+        <v>0.3649950153352286</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3319460032036841</v>
+        <v>0.3342554791210608</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3979088213136345</v>
+        <v>0.3994840509080499</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>442</v>
@@ -4913,19 +4913,19 @@
         <v>267772</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>246564</v>
+        <v>246529</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>288691</v>
+        <v>288609</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3164231221997246</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2913625155473218</v>
+        <v>0.2913209050579389</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3411427101929456</v>
+        <v>0.3410458916499154</v>
       </c>
     </row>
     <row r="27">
@@ -5017,19 +5017,19 @@
         <v>43039</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33904</v>
+        <v>34223</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55263</v>
+        <v>54215</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1387468974917536</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1092963850223583</v>
+        <v>0.1103269309647436</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1781545833747991</v>
+        <v>0.1747740959883045</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>80</v>
@@ -5038,19 +5038,19 @@
         <v>38337</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>30286</v>
+        <v>30092</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>47340</v>
+        <v>48054</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.08251492265958567</v>
+        <v>0.08251492265958565</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0651854725319196</v>
+        <v>0.06476879894507985</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1018927161414649</v>
+        <v>0.1034291635355682</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>139</v>
@@ -5059,19 +5059,19 @@
         <v>81376</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>69983</v>
+        <v>67301</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>96021</v>
+        <v>94090</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1050277019546637</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09032346982420138</v>
+        <v>0.08686133547265158</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1239285435583626</v>
+        <v>0.1214371411126472</v>
       </c>
     </row>
     <row r="29">
@@ -5088,19 +5088,19 @@
         <v>147530</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>133638</v>
+        <v>132227</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>161647</v>
+        <v>161246</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.4756000393730557</v>
+        <v>0.4756000393730556</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4308146913557053</v>
+        <v>0.4262676154848467</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5211085992499948</v>
+        <v>0.519816317266092</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>242</v>
@@ -5109,19 +5109,19 @@
         <v>127725</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>113690</v>
+        <v>114277</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>142996</v>
+        <v>142517</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2749076575097087</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2446994466219631</v>
+        <v>0.2459644560583644</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3077762207949581</v>
+        <v>0.3067461449551926</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>462</v>
@@ -5130,19 +5130,19 @@
         <v>275255</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>255176</v>
+        <v>255781</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>298469</v>
+        <v>298003</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.3552559524536098</v>
+        <v>0.3552559524536097</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3293410173518673</v>
+        <v>0.3301227993673427</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.385217224247696</v>
+        <v>0.3846159179324798</v>
       </c>
     </row>
     <row r="30">
@@ -5159,19 +5159,19 @@
         <v>119629</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>105817</v>
+        <v>104905</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>132620</v>
+        <v>134014</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3856530631351907</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3411286860221983</v>
+        <v>0.3381876189595594</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4275318429849942</v>
+        <v>0.4320263757328756</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>559</v>
@@ -5180,19 +5180,19 @@
         <v>298547</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>283743</v>
+        <v>283279</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>314082</v>
+        <v>313999</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.6425774198307057</v>
+        <v>0.6425774198307056</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.6107133619664956</v>
+        <v>0.609714111735185</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6760144417294159</v>
+        <v>0.6758340961077413</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>738</v>
@@ -5201,19 +5201,19 @@
         <v>418176</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>395163</v>
+        <v>395722</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>438857</v>
+        <v>437892</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.5397163455917264</v>
+        <v>0.5397163455917263</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5100146766255875</v>
+        <v>0.5107358898267136</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5664078881133179</v>
+        <v>0.5651620741698717</v>
       </c>
     </row>
     <row r="31">
@@ -5305,19 +5305,19 @@
         <v>956209</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>893638</v>
+        <v>896300</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1011882</v>
+        <v>1012211</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2706690059288557</v>
+        <v>0.2706690059288558</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2529573915460782</v>
+        <v>0.2537109369915268</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2864280216038383</v>
+        <v>0.2865210698757321</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>965</v>
@@ -5326,19 +5326,19 @@
         <v>656809</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>620830</v>
+        <v>612203</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>702598</v>
+        <v>697856</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.1757604800294488</v>
+        <v>0.1757604800294487</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1661325182115049</v>
+        <v>0.1638240118585944</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1880135284967336</v>
+        <v>0.1867445756792352</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1818</v>
@@ -5347,19 +5347,19 @@
         <v>1613018</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1548330</v>
+        <v>1543421</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1698733</v>
+        <v>1681346</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2218818445557238</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2129835114569181</v>
+        <v>0.2123082676928461</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.23367255932033</v>
+        <v>0.2312808462134314</v>
       </c>
     </row>
     <row r="33">
@@ -5376,19 +5376,19 @@
         <v>1604671</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1544835</v>
+        <v>1541776</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1672610</v>
+        <v>1669849</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.4542256211340536</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.4372882075336981</v>
+        <v>0.4364223384957678</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4734566789301582</v>
+        <v>0.4726751720812961</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2430</v>
@@ -5397,19 +5397,19 @@
         <v>1728581</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1673328</v>
+        <v>1677356</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>1783791</v>
+        <v>1782806</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.4625642804885985</v>
+        <v>0.4625642804885984</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.4477787018246895</v>
+        <v>0.4488564214518185</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.4773382943880471</v>
+        <v>0.4770745486781964</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>3990</v>
@@ -5418,19 +5418,19 @@
         <v>3333252</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>3240619</v>
+        <v>3256386</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>3412147</v>
+        <v>3419001</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.4585120592144105</v>
+        <v>0.4585120592144104</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.4457697213797981</v>
+        <v>0.4479384803622805</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.4693646119639468</v>
+        <v>0.4703073294610052</v>
       </c>
     </row>
     <row r="34">
@@ -5447,19 +5447,19 @@
         <v>971882</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>912047</v>
+        <v>915293</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1029443</v>
+        <v>1030102</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2751053729370907</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2581683647741629</v>
+        <v>0.259087078475064</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2913989066863691</v>
+        <v>0.2915854168537201</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1972</v>
@@ -5468,19 +5468,19 @@
         <v>1351564</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1295853</v>
+        <v>1300482</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1402069</v>
+        <v>1406232</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3616752394819528</v>
+        <v>0.3616752394819527</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3467670915793669</v>
+        <v>0.3480058426338427</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3751902828424733</v>
+        <v>0.3763044023353341</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2935</v>
@@ -5489,19 +5489,19 @@
         <v>2323446</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2249025</v>
+        <v>2244691</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2412084</v>
+        <v>2404844</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3196060962298656</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3093690547115311</v>
+        <v>0.308772793250934</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3317989235361497</v>
+        <v>0.3308029780284532</v>
       </c>
     </row>
     <row r="35">
